--- a/Integration Services Project2/notes/analysis-mr-invuse.xlsx
+++ b/Integration Services Project2/notes/analysis-mr-invuse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4120B7AD-6DF2-4D26-9216-42AF0AD7C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D055F-CC6E-4659-98A3-36803CBC3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8227C6F5-11CC-4AA5-9E69-D020FAB23A11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8227C6F5-11CC-4AA5-9E69-D020FAB23A11}"/>
   </bookViews>
   <sheets>
     <sheet name="MR" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,88 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Wahyu Yoga Pratama</author>
+  </authors>
+  <commentList>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{72FE2D08-5DD0-415B-9463-A5889B6038C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wahyu Yoga Pratama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RECONCILED=1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{514938B9-05BE-426C-A36D-8151F89D0AFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wahyu Yoga Pratama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CONDRATE=100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{B6B4019B-6C35-4FDB-B812-40DCA162647C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wahyu Yoga Pratama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TRANSTYPE=INSERTITEM</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wahyu Yoga Pratama</author>
@@ -614,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +716,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1329,11 +1424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C4A992-1B1B-4551-8769-0112650AFB38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C4A992-1B1B-4551-8769-0112650AFB38}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,6 +1750,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1662,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C98E2E2-A89A-4FBC-9EE1-189EBFF04CC1}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Integration Services Project2/notes/analysis-mr-invuse.xlsx
+++ b/Integration Services Project2/notes/analysis-mr-invuse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D055F-CC6E-4659-98A3-36803CBC3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE642D7-5DB1-4CA7-9AD5-BF64CC5631CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8227C6F5-11CC-4AA5-9E69-D020FAB23A11}"/>
+    <workbookView minimized="1" xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{8227C6F5-11CC-4AA5-9E69-D020FAB23A11}"/>
   </bookViews>
   <sheets>
     <sheet name="MR" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{CB481EAD-16A3-44AE-87AE-1B1A28497007}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wahyu Yoga Pratama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STE_TOTALQTY=CURBAL</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I10" authorId="0" shapeId="0" xr:uid="{B6B4019B-6C35-4FDB-B812-40DCA162647C}">
       <text>
         <r>
@@ -100,7 +124,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-TRANSTYPE=INSERTITEM</t>
+TRANSTYPE=INSERTITEM
+CONDRATE=100</t>
         </r>
       </text>
     </comment>
@@ -1428,7 +1453,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
